--- a/data/trans_camb/P1805_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1805_2016_2023-Estudios-trans_camb.xlsx
@@ -570,7 +570,7 @@
         <v>-1.13734379500504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.4933180867662</v>
+        <v>-0.4933180867662007</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.491329143147356</v>
+        <v>-1.175961911944965</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.937728937820613</v>
+        <v>-3.023403638136599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.646720733565532</v>
+        <v>-1.732052001829818</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.245076026040028</v>
+        <v>2.269393551473883</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4371994705450518</v>
+        <v>0.4354336614330988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.744322870613821</v>
+        <v>0.7798634349489393</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>-0.2660255874435111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1475862810311162</v>
+        <v>-0.1475862810311165</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5403257561739494</v>
+        <v>-0.4670252447578167</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5398147139428179</v>
+        <v>-0.5403760009076563</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4140648042958879</v>
+        <v>-0.4217167676650644</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.589427296691779</v>
+        <v>1.628850110502953</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1631789108214888</v>
+        <v>0.129173273271363</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2909183682911421</v>
+        <v>0.2836299725994699</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5932132185472705</v>
+        <v>0.5564127646346593</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9243038859078904</v>
+        <v>-0.9948439650287829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1665926517232082</v>
+        <v>0.2022653564545198</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.720656157930823</v>
+        <v>2.714950374795765</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.463581841124644</v>
+        <v>1.421835386438942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.744541549287488</v>
+        <v>1.81016799592775</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2475633777557511</v>
+        <v>0.2393642627511089</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.212114120243391</v>
+        <v>-0.2378402169582411</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05041109895994247</v>
+        <v>0.04524403924790877</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.058611062324647</v>
+        <v>1.989409379044868</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4707134973901527</v>
+        <v>0.4680479835107673</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7224038310029153</v>
+        <v>0.7637850753176252</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>3.388653641719452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.871978228844274</v>
+        <v>2.871978228844272</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5225404377838263</v>
+        <v>0.5648681104412832</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.368853602023176</v>
+        <v>1.362768279277798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.222942642915299</v>
+        <v>1.410770069463793</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.51100983828485</v>
+        <v>4.553670827725152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.691350826134949</v>
+        <v>5.614958595422784</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.309426723146951</v>
+        <v>4.355631174447531</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07104988929066408</v>
+        <v>0.1121412452600328</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2869769519294311</v>
+        <v>0.2827539880721567</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.391730594465886</v>
+        <v>0.4878218935819799</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.020356111896598</v>
+        <v>5.002570456727332</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.282755674302031</v>
+        <v>2.972721941861107</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.807898851941734</v>
+        <v>2.916876783439117</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6549295081408746</v>
+        <v>0.6348745289203129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4353782787778989</v>
+        <v>-0.333924169006204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3892886105006163</v>
+        <v>0.315895113443104</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.411812800583372</v>
+        <v>2.423090530529914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.397541932414511</v>
+        <v>1.415132462664858</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.721818995222199</v>
+        <v>1.613727806447611</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2870562869480693</v>
+        <v>0.2690525726903396</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1132361098190922</v>
+        <v>-0.08125006857866451</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1277751785818936</v>
+        <v>0.1002188504941628</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.600800131131912</v>
+        <v>1.585723802859482</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4552030317717418</v>
+        <v>0.4277362039115019</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.693305747238831</v>
+        <v>0.6401368652227708</v>
       </c>
     </row>
     <row r="28">
